--- a/players_stats/David Andersen.xlsx
+++ b/players_stats/David Andersen.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,35 +499,45 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>TOV</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -542,20 +552,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1967-68</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NJA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -564,87 +574,97 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>63</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>891</v>
+      </c>
+      <c r="K2" t="n">
+        <v>147</v>
+      </c>
+      <c r="L2" t="n">
+        <v>340</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="N2" t="n">
+        <v>27</v>
+      </c>
+      <c r="O2" t="n">
         <v>78</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>2626</v>
-      </c>
-      <c r="K2" t="n">
-        <v>463</v>
-      </c>
-      <c r="L2" t="n">
-        <v>938</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>0.346</v>
+      </c>
       <c r="Q2" t="n">
-        <v>463</v>
+        <v>120</v>
       </c>
       <c r="R2" t="n">
-        <v>938</v>
+        <v>262</v>
       </c>
       <c r="S2" t="n">
-        <v>0.494</v>
+        <v>0.458</v>
       </c>
       <c r="T2" t="n">
-        <v>0.494</v>
+        <v>0.472</v>
       </c>
       <c r="U2" t="n">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="V2" t="n">
-        <v>320</v>
+        <v>67</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6970000000000001</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="n">
-        <v>553</v>
+        <v>154</v>
       </c>
       <c r="Z2" t="n">
-        <v>856</v>
+        <v>208</v>
       </c>
       <c r="AA2" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>1149</v>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 104 </t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>119</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>367</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AH2" t="n">
-        <v>89</v>
+      <c r="AJ2" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -656,11 +676,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1968-69</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -669,96 +689,106 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>62</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="n">
-        <v>1399</v>
+        <v>373</v>
       </c>
       <c r="K3" t="n">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="L3" t="n">
-        <v>483</v>
+        <v>121</v>
       </c>
       <c r="M3" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.348</v>
+      </c>
       <c r="Q3" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="R3" t="n">
-        <v>483</v>
+        <v>98</v>
       </c>
       <c r="S3" t="n">
-        <v>0.455</v>
+        <v>0.49</v>
       </c>
       <c r="T3" t="n">
-        <v>0.455</v>
+        <v>0.496</v>
       </c>
       <c r="U3" t="n">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="V3" t="n">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="W3" t="n">
-        <v>0.792</v>
+        <v>0.636</v>
       </c>
       <c r="X3" t="n">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="Z3" t="n">
-        <v>460</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>558</v>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 104 </t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>134</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AH3" t="n">
-        <v>89</v>
+      <c r="AJ3" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -770,109 +800,119 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1968-69</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NYA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
-        <v>677</v>
+        <v>150</v>
       </c>
       <c r="K4" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="L4" t="n">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="M4" t="n">
-        <v>0.433</v>
+        <v>0.489</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3</v>
+      </c>
       <c r="Q4" t="n">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="S4" t="n">
-        <v>0.433</v>
+        <v>0.541</v>
       </c>
       <c r="T4" t="n">
-        <v>0.433</v>
+        <v>0.521</v>
       </c>
       <c r="U4" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8240000000000001</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="n">
-        <v>277</v>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 104 </t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>56</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AH4" t="n">
-        <v>89</v>
+      <c r="AJ4" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -884,109 +924,119 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1968-69</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>NOH</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="K5" t="n">
+        <v>33</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>28</v>
+      </c>
+      <c r="R5" t="n">
+        <v>61</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="U5" t="n">
         <v>7</v>
       </c>
-      <c r="L5" t="n">
-        <v>22</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="U5" t="n">
-        <v>6</v>
-      </c>
       <c r="V5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>0.75</v>
+        <v>0.467</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 104 </t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>78</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AH5" t="n">
-        <v>89</v>
+      <c r="AJ5" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -998,217 +1048,113 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1968-69</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MNP</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ABA</t>
+          <t>NBA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>103</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="n">
-        <v>628</v>
+        <v>1264</v>
       </c>
       <c r="K6" t="n">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="L6" t="n">
-        <v>228</v>
+        <v>461</v>
       </c>
       <c r="M6" t="n">
-        <v>0.491</v>
+        <v>0.44</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.347</v>
+      </c>
       <c r="Q6" t="n">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="R6" t="n">
-        <v>228</v>
+        <v>360</v>
       </c>
       <c r="S6" t="n">
-        <v>0.491</v>
+        <v>0.467</v>
       </c>
       <c r="T6" t="n">
-        <v>0.491</v>
+        <v>0.478</v>
       </c>
       <c r="U6" t="n">
+        <v>60</v>
+      </c>
+      <c r="V6" t="n">
+        <v>89</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="X6" t="n">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>218</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>292</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>59</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>159</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 211</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
         <v>37</v>
-      </c>
-      <c r="V6" t="n">
-        <v>50</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X6" t="n">
-        <v>98</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>218</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>261</v>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 104 </t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AH6" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ABA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>140</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>4025</v>
-      </c>
-      <c r="K7" t="n">
-        <v>683</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1421</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>683</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1421</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.481</v>
-      </c>
-      <c r="U7" t="n">
-        <v>341</v>
-      </c>
-      <c r="V7" t="n">
-        <v>469</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="X7" t="n">
-        <v>488</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>828</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1316</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>158</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>212</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>503</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1707</v>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 208</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 104 </t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AH7" t="n">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
